--- a/biology/Zoologie/Eider_à_duvet/Eider_à_duvet.xlsx
+++ b/biology/Zoologie/Eider_à_duvet/Eider_à_duvet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Eider_%C3%A0_duvet</t>
+          <t>Eider_à_duvet</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Somateria mollissima
 L'Eider à duvet (Somateria mollissima) est une espèce de canards plongeurs marins de la famille des Anatidés.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Eider_%C3%A0_duvet</t>
+          <t>Eider_à_duvet</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Identification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mot Eider est emprunté à l'anglais, qui parvient via l'allemand ou le néerlandais de l'islandais æðarfugl « eider à duvet », et son nom italien, edredone, rappelle l'édredon fait de duvet de plumes, lui aussi emprunté au danois edderdun « duvet de l'eider ». C'est un canard de 50 à 71 cm de long avec une envergure de 80 à 108 cm, pesant entre 1 200 et 2 800 g. Ce sont de gros oiseaux aux formes massives.
 Le mâle a une calotte noire sur la tête, une nuque et les côtés du cou vert olive, des joues blanches. Le ventre, les flancs et la queue sont noirs, le dos est blanc et la poitrine légèrement rosée. Les ailes sont noires et blanches. Son plumage éclipse est presque entièrement noir.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Eider_%C3%A0_duvet</t>
+          <t>Eider_à_duvet</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,12 +561,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nidification
-En Europe, l'Eider à duvet vit dans l'hémisphère Nord, à la limite de la banquise. Il niche sur les côtes de l'océan Atlantique Nord et de la mer du Nord, de la Scandinavie à l'Islande. Récemment, des cas de nidification ont été répertoriés plus au sud, et même à l'intérieur du continent en Suisse, sur le Léman.
-Hivernage
-L'Eider hiverne principalement sur les côtes de l'Atlantique, en plus petit nombre sur les grands lacs de l'intérieur.
-Au Québec
-L'été au Québec, on retrouve l'Eider à duvet dans une douzaine d'aires de nidification, notamment sur les îles du Bas Saint-Laurent : l'Île aux Basques et l'Île aux Pommes[1], deux refuges d'oiseaux de la région de Trois-Pistoles et ainsi que plusieurs autres.
+          <t>Nidification</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Europe, l'Eider à duvet vit dans l'hémisphère Nord, à la limite de la banquise. Il niche sur les côtes de l'océan Atlantique Nord et de la mer du Nord, de la Scandinavie à l'Islande. Récemment, des cas de nidification ont été répertoriés plus au sud, et même à l'intérieur du continent en Suisse, sur le Léman.
 </t>
         </is>
       </c>
@@ -563,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Eider_%C3%A0_duvet</t>
+          <t>Eider_à_duvet</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,12 +593,20 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Habitat</t>
+          <t>Aire de répartition</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'Eider à duvet préfère les côtes maritimes rocheuses ou sablonneuses. En hiver, on peut le rencontrer sur les fleuves et les lacs d'eau douce.
+          <t>Hivernage</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Eider hiverne principalement sur les côtes de l'Atlantique, en plus petit nombre sur les grands lacs de l'intérieur.
+Au Québec
+L'été au Québec, on retrouve l'Eider à duvet dans une douzaine d'aires de nidification, notamment sur les îles du Bas Saint-Laurent : l'Île aux Basques et l'Île aux Pommes, deux refuges d'oiseaux de la région de Trois-Pistoles et ainsi que plusieurs autres.
 </t>
         </is>
       </c>
@@ -594,7 +617,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Eider_%C3%A0_duvet</t>
+          <t>Eider_à_duvet</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,10 +632,45 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Eider à duvet préfère les côtes maritimes rocheuses ou sablonneuses. En hiver, on peut le rencontrer sur les fleuves et les lacs d'eau douce.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Eider_à_duvet</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eider_%C3%A0_duvet</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un oiseau qui se regroupe en troupes nombreuses, de 10 à 1 000 oiseaux.
 Contrairement aux autres canards, il alterne le vol battu et le vol plané.
@@ -620,44 +678,13 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Eider_%C3%A0_duvet</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Eider_%C3%A0_duvet</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Régime alimentaire</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un excellent plongeur. Il plonge plus d'une minute et peut s'enfoncer jusqu'à 25 mètres. Il pêche principalement les crustacés et les mollusques.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Eider_%C3%A0_duvet</t>
+          <t>Eider_à_duvet</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -672,12 +699,14 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Reproduction</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle pond une couvée par an de 4 à 6 œufs en mai-juin. Le nid est près de l'eau sur le sable ou dans les rochers, éventuellement protégé par la végétation. Il est fait du duvet de la femelle. Celui-ci est utilisé depuis longtemps par les peuples vivant dans le grand nord. Il est récolté dans les nids après le départ des petits. Il est utilisé pour confectionner des vêtements chauds et des édredons, nom issu de l'anglais « eider down », « duvet d'eider ». Considéré comme le nec plus ultra pour le garnissage des couettes, le prix de ce duvet est très élevé – une couette de 140 X 200 cm coûte dans les 4 000 euros (en 2011)[2].
+          <t>Régime alimentaire</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un excellent plongeur. Il plonge plus d'une minute et peut s'enfoncer jusqu'à 25 mètres. Il pêche principalement les crustacés et les mollusques.
 </t>
         </is>
       </c>
@@ -688,7 +717,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Eider_%C3%A0_duvet</t>
+          <t>Eider_à_duvet</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -703,21 +732,15 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Menaces et conservation</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Utilisation par l'Homme
-L'eider à duvet est aujourd'hui exploité sous une forme "d'élevage d’oiseau en liberté". La récolte du duvet se fait au printemps lors de la saison de reproduction durant laquelle l'oiseau arrache une partie de son duvet pour confectionner son nid. L'exploitation du duvet est réalisée par les Amérindiens de manière traditionnelle et c'est depuis les années 1950 que son exploitation est devenue commerciale[3]. À l'heure actuelle, sur les 40 grammes de duvet mis en place par l'animal, 7 grammes au maximum sont collectés, pour une  production annuelle mondiale de 4 à 5 tonnes[3].
-35 colonies constituées de dizaines de milliers de couples sont présentes sur les rives du Saint Laurent au Québec et certaines régions québécoises mettent en place des nids artificiels pour faciliter la reproduction de l'espèce et la collecte du duvet[4].
-Les hivers très froids de la fin des années 1950 et du début des années 1960 ont engendré des migrations en nombre exceptionnel de canards eider autour du lac d'Annecy, ce qui aurait donné l'idée du nom de la marque Eider.
-France
-Cette espèce est menacée:
-Liste Rouge de UICN France, Statut CR (en danger critique d'extinction)[5],[6]
-Europe
-Cette espèce est menacée:
-Liste Rouge de UICN Europe, Statut EN (espèce en danger)[7]</t>
+          <t>Reproduction</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle pond une couvée par an de 4 à 6 œufs en mai-juin. Le nid est près de l'eau sur le sable ou dans les rochers, éventuellement protégé par la végétation. Il est fait du duvet de la femelle. Celui-ci est utilisé depuis longtemps par les peuples vivant dans le grand nord. Il est récolté dans les nids après le départ des petits. Il est utilisé pour confectionner des vêtements chauds et des édredons, nom issu de l'anglais « eider down », « duvet d'eider ». Considéré comme le nec plus ultra pour le garnissage des couettes, le prix de ce duvet est très élevé – une couette de 140 X 200 cm coûte dans les 4 000 euros (en 2011).
+</t>
         </is>
       </c>
     </row>
@@ -727,7 +750,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Eider_%C3%A0_duvet</t>
+          <t>Eider_à_duvet</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -742,10 +765,125 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>Menaces et conservation</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Utilisation par l'Homme</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'eider à duvet est aujourd'hui exploité sous une forme "d'élevage d’oiseau en liberté". La récolte du duvet se fait au printemps lors de la saison de reproduction durant laquelle l'oiseau arrache une partie de son duvet pour confectionner son nid. L'exploitation du duvet est réalisée par les Amérindiens de manière traditionnelle et c'est depuis les années 1950 que son exploitation est devenue commerciale. À l'heure actuelle, sur les 40 grammes de duvet mis en place par l'animal, 7 grammes au maximum sont collectés, pour une  production annuelle mondiale de 4 à 5 tonnes.
+35 colonies constituées de dizaines de milliers de couples sont présentes sur les rives du Saint Laurent au Québec et certaines régions québécoises mettent en place des nids artificiels pour faciliter la reproduction de l'espèce et la collecte du duvet.
+Les hivers très froids de la fin des années 1950 et du début des années 1960 ont engendré des migrations en nombre exceptionnel de canards eider autour du lac d'Annecy, ce qui aurait donné l'idée du nom de la marque Eider.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Eider_à_duvet</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eider_%C3%A0_duvet</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Menaces et conservation</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Cette espèce est menacée:
+Liste Rouge de UICN France, Statut CR (en danger critique d'extinction),</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Eider_à_duvet</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eider_%C3%A0_duvet</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Menaces et conservation</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Cette espèce est menacée:
+Liste Rouge de UICN Europe, Statut EN (espèce en danger)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Eider_à_duvet</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eider_%C3%A0_duvet</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>D'après Alan P. Peterson, cette espèce est constituée des six sous-espèces suivantes :
 Somateria mollissima borealis  (C.L. Brehm) 1824
